--- a/medicine/Enfance/Chrystine_Brouillet/Chrystine_Brouillet.xlsx
+++ b/medicine/Enfance/Chrystine_Brouillet/Chrystine_Brouillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrystine Brouillet, née le 15 février 1958, à Loretteville, un des quartiers de Québec, est une écrivaine et chroniqueuse québécoise. Elle est connue pour sa série de romans policiers ayant pour héroïne la policière Maud Graham.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a étudié au collège des Ursulines de Loretteville, puis au Collège Notre-Dame-de-Bellevue avant d'obtenir son baccalauréat en littérature à l'Université Laval. Après ses études, elle travaille pendant six ans comme serveuse dans un café.
-Elle est principalement connue comme auteure, bien qu'elle tienne également une chronique littéraire et gastronomique sur les ondes de Radio-Canada. Si Chrystine Brouillet s'est fait connaître grâce à ses romans jeunesse, ce sont ses romans policiers, notamment la série ayant comme héroïne l'inspectrice de police Maud Graham, qui, selon les dires de sa créatrice, « est une assistante sociale déguisée en flic »[1].
+Elle est principalement connue comme auteure, bien qu'elle tienne également une chronique littéraire et gastronomique sur les ondes de Radio-Canada. Si Chrystine Brouillet s'est fait connaître grâce à ses romans jeunesse, ce sont ses romans policiers, notamment la série ayant comme héroïne l'inspectrice de police Maud Graham, qui, selon les dires de sa créatrice, « est une assistante sociale déguisée en flic ».
 Chrystine Brouillet est l'une des autrices les plus lues du Québec. Elle a également abordé le roman historique avec la trilogie de Marie LaFlamme. D'abord publiés au Québec, ses livres sont repris en France chez Denoël et dans la collection Folio chez Gallimard.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Prix et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrystine Brouillet publie son premier roman, Chère voisine, en 1982, pour lequel elle reçoit le prix Robert-Cliche. Pour Le Complot, elle reçoit le Prix Alvine-Bélisle (meilleur livre jeunesse de l'année). Appréciée des jeunes, elle reçoit en 1993 et en 1994 le Prix du Signet d'or (auteure préférée des jeunes). En 1995, elle se voit décorer du prix du public du Salon du livre de Montréal et de l'ordre de la Pléiade. En 2004, le Grand prix littéraire Archambault lui est décerné. En 2009, elle reçoit également le Prix Saint-Pacôme du roman policier pour son œuvre Promesses d'éternité.
 La Bibliothèque Chrystine-Brouillet, de sa ville de naissance, a été nommée en son honneur.
@@ -578,9 +594,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Maud Graham
-1987 : Le Poison dans l'eau - éditeur : Paris, Denoël, collection Sueurs froides -  (ISBN 2207233669)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série policière Maud Graham</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1987 : Le Poison dans l'eau - éditeur : Paris, Denoël, collection Sueurs froides -  (ISBN 2207233669)
 1988 : Préférez-vous les icebergs ? - éditeur : Paris, Denoël, collection Sueurs froides -  (ISBN 2890850293) Réédition : La courte échelle (2012)  (ISBN 978-2-89695-388-2)
 1995 : Le Collectionneur - éditeur : La courte échelle -  (ISBN 289021236X)
 1996 : C'est pour mieux t'aimer mon enfant - éditeur : Montréal : La courte échelle -  (ISBN 2-89021-276-9)
@@ -600,17 +624,131 @@
 2019 : Dans son ombre - éditeur : Druide  (ISBN 978-2-89711-478-7)
 2020 : Les Cibles - éditeur : Druide  (ISBN 978-2-89711-528-9)
 2022 : Une de moins - éditeur : Druide  (ISBN 978-2-89711-640-8)
-2023 : Le mois des morts - éditeur : Druide  (ISBN 978-2-89711-687-3)
-Série policière Louise
-1982 : Chère Voisine - éditeur : Montréal : Typo -  (ISBN 2-89295-097-X) - (Prix Robert-Cliche)
+2023 : Le mois des morts - éditeur : Druide  (ISBN 978-2-89711-687-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série policière Louise</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1982 : Chère Voisine - éditeur : Montréal : Typo -  (ISBN 2-89295-097-X) - (Prix Robert-Cliche)
 2014 : Louise est de retour - éditeur : Montréal : Éditions de l'homme  (ISBN 978-2-76193-994-2)
-2015 : La mort mène le bal - éditeur : Montréal : Éditions de l'homme  (ISBN 978-2-76194-283-6)
-Trilogie Marie LaFlamme
-1990 : Marie LaFlamme - éditeur : Paris : Denoël -  (ISBN 2-207-23771-0)
+2015 : La mort mène le bal - éditeur : Montréal : Éditions de l'homme  (ISBN 978-2-76194-283-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Trilogie Marie LaFlamme</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1990 : Marie LaFlamme - éditeur : Paris : Denoël -  (ISBN 2-207-23771-0)
 1992 : Nouvelle-France - éditeur : Paris : Denoël -  (ISBN 2-207-23949-7)
-1994 : La Renarde - éditeur : Paris : Denoël -  (ISBN 2-207-24031-2)
-Romans jeunesse
-1989 : Un jeu dangereux - éditeur : Montréal : La Courte échelle -  (ISBN 2-89021-105-3)
+1994 : La Renarde - éditeur : Paris : Denoël -  (ISBN 2-207-24031-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1989 : Un jeu dangereux - éditeur : Montréal : La Courte échelle -  (ISBN 2-89021-105-3)
 1991 : Une plage trop chaude - éditeur : Montréal : La Courte échelle -  (ISBN 2-89021-148-7)
 1992 : Une Nuit très longue - éditeur : Montréal : La Courte échelle -  (ISBN 9782896510641)
 1992 : Danger bonbons - éditeur : Paris : Syros -  (ISBN 2867384184)
@@ -627,9 +765,47 @@
 1998 : Les collégiens mènent l'enquête - éditeur : Éditions Pocket -  (ISBN 2-266-07543-8)
 1998 : Vol du siècle - éditeur : Éditions la Courte échelle -  (ISBN 2890211606)
 2000 : La Disparition de Baffuto - éditeur : Éditions la Courte échelle -  (ISBN 2-89021-392-7)
-2001 : Le Complot - éditeur : Éditions la Courte échelle -  (ISBN 2-89021-471-0) - (Prix Alvine-Bélisle)
-Autres romans
-1983 : Coups de foudre - éditeur : Montréal : Les Quinze -  (ISBN 2890263150)
+2001 : Le Complot - éditeur : Éditions la Courte échelle -  (ISBN 2-89021-471-0) - (Prix Alvine-Bélisle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1983 : Coups de foudre - éditeur : Montréal : Les Quinze -  (ISBN 2890263150)
 1998 : Les Neuf Vies d'Edward - éditeur : Paris : Éditions Denoël -  (ISBN 978-2207246931)
 2002 : Les Quatre Saisons de Violetta - éditeur : Paris : Éditions Denoël -  (ISBN 2-207-25377-5)
 2004 : Pense-Bêtes - éditeur : Montréal : Éditions Les 400 coups -  (ISBN 2-89540-197-7)
@@ -637,39 +813,75 @@
 2006 : Couleur Champagne - éditeur : Montréal : Flammarion -  (ISBN 978-2-89077-316-5)
 2007 : Zone grise - éditeur : Montréal : Boréal -  (ISBN 978-2-7646-0528-8)
 2018 : Chambre 1002 - éditeur : Druide -  (ISBN 978-2-89711-435-0) Et Ramsay pour l'édition française -  (ISBN 978-2-81220-159-2)
-2021 : Sa parole contre la mienne - éditeur : Druide -  (ISBN 978-2-89711-571-5)
-Autres publications
-2010 : Carnets de Paris, aquarelles de Jean-Guy Meunier - Montréal : Éditions Les heures bleues -  (ISBN 978-2-922265-75-0)
+2021 : Sa parole contre la mienne - éditeur : Druide -  (ISBN 978-2-89711-571-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2010 : Carnets de Paris, aquarelles de Jean-Guy Meunier - Montréal : Éditions Les heures bleues -  (ISBN 978-2-922265-75-0)
 2014 : Sur la piste de Maud Graham: Promenades &amp; Gourmandises - Montréal : Parfum d'encre -  (ISBN 978-2-92425-105-8)
 2020 : Ponts- Collectif sous la direction de Chrystine Brouillet, nouvelles inspirées des œuvres de James Kennedy - éditeur : Druide  (ISBN 978-2-89711-505-0)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chrystine_Brouillet</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chrystine_Brouillet</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrystine_Brouillet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>2002 : Le Collectionneur, film québécois réalisé par Jean Beaudin, d'après le roman éponyme, avec Maude Guérin dans le rôle de Maud Graham, Luc Picard et Lawrence Arcouette
 2010 : Good Neighbours (en français : Notre-Dame-de-Grâces), film canadien réalisé par Jacob Tierney, d'après le roman Chère voisine avec Jay Baruchel, Scott Speedman et Xavier Dolan</t>
